--- a/biology/Zoologie/Hypanartia/Hypanartia.xlsx
+++ b/biology/Zoologie/Hypanartia/Hypanartia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypanartia est un genre néotropical de lépidoptères de la famille des Nymphalidae.
 </t>
@@ -511,22 +523,24 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après Funet[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après Funet:
 Hypanartia paullus (Fabricius, 1793)
 Hypanartia bella (Fabricius, 1793)
 Hypanartia lethe (Fabricius, 1793)
 Hypanartia godmanii (Bates, 1864)
 Hypanartia charon (Hewitson, 1878)
-Hypanartia dione (Latreille, [1813])
+Hypanartia dione (Latreille, )
 Hypanartia celestia Lamas, Willmott &amp; Hall, 2001
 Hypanartia splendida Rothschild, 1903
 Hypanartia lindigii (C. &amp; R. Felder, 1862)
 Hypanartia christophori Jasinski, 1998
 Hypanartia fassli Willmott, Hall &amp; Lamas, 2001
 Hypanartia trimaculata Willmott, Hall &amp; Lamas, 2001
-Hypanartia kefersteini (Doubleday, [1847])
+Hypanartia kefersteini (Doubleday, )
 Hypanartia cinderella Lamas, Willmott &amp; Hall, 2001</t>
         </is>
       </c>
